--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrpap1-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrpap1-Lrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H2">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I2">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J2">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.005891</v>
       </c>
       <c r="O2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01556727186833333</v>
+        <v>0.01586728086166667</v>
       </c>
       <c r="R2">
-        <v>0.140105446815</v>
+        <v>0.142805527755</v>
       </c>
       <c r="S2">
-        <v>0.007487196110275011</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="T2">
-        <v>0.00748719611027501</v>
+        <v>0.1496988574979476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.927655000000001</v>
+        <v>12.980532</v>
       </c>
       <c r="H3">
-        <v>23.782965</v>
+        <v>38.941596</v>
       </c>
       <c r="I3">
-        <v>0.1200556835465435</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J3">
-        <v>0.1200556835465435</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +620,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N3">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2340508011166667</v>
+        <v>0.02548943800400001</v>
       </c>
       <c r="R3">
-        <v>2.10645721005</v>
+        <v>0.229404942036</v>
       </c>
       <c r="S3">
-        <v>0.1125684874362685</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="T3">
-        <v>0.1125684874362685</v>
+        <v>0.2404784903431001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.980532</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H4">
-        <v>38.941596</v>
+        <v>45.772477</v>
       </c>
       <c r="I4">
-        <v>0.1965759915205419</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J4">
-        <v>0.1965759915205419</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,27 +688,27 @@
         <v>0.005891</v>
       </c>
       <c r="O4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.025489438004</v>
+        <v>0.02996062911188889</v>
       </c>
       <c r="R4">
-        <v>0.229404942036</v>
+        <v>0.269645662007</v>
       </c>
       <c r="S4">
-        <v>0.0122593362980226</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="T4">
-        <v>0.01225933629802259</v>
+        <v>0.2826616599952471</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.980532</v>
+        <v>4.142925</v>
       </c>
       <c r="H5">
-        <v>38.941596</v>
+        <v>12.428775</v>
       </c>
       <c r="I5">
-        <v>0.1965759915205419</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J5">
-        <v>0.1965759915205419</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N5">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O5">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.3832285730800001</v>
+        <v>0.008135323725000001</v>
       </c>
       <c r="R5">
-        <v>3.449057157720001</v>
+        <v>0.07321791352500001</v>
       </c>
       <c r="S5">
-        <v>0.1843166552225193</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="T5">
-        <v>0.1843166552225193</v>
+        <v>0.07675219702895753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.95152166666666</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H6">
-        <v>65.85456499999999</v>
+        <v>40.549648</v>
       </c>
       <c r="I6">
-        <v>0.3324318400054526</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J6">
-        <v>0.3324318400054526</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,332 +812,22 @@
         <v>0.005891</v>
       </c>
       <c r="O6">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.04310547137944443</v>
+        <v>0.02654199737422223</v>
       </c>
       <c r="R6">
-        <v>0.387949242415</v>
+        <v>0.238877976368</v>
       </c>
       <c r="S6">
-        <v>0.02073189961436065</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="T6">
-        <v>0.02073189961436065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>21.95152166666666</v>
-      </c>
-      <c r="H7">
-        <v>65.85456499999999</v>
-      </c>
-      <c r="I7">
-        <v>0.3324318400054526</v>
-      </c>
-      <c r="J7">
-        <v>0.3324318400054526</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q7">
-        <v>0.6480820913388888</v>
-      </c>
-      <c r="R7">
-        <v>5.83273882205</v>
-      </c>
-      <c r="S7">
-        <v>0.311699940391092</v>
-      </c>
-      <c r="T7">
-        <v>0.311699940391092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.771175666666667</v>
-      </c>
-      <c r="H8">
-        <v>11.313527</v>
-      </c>
-      <c r="I8">
-        <v>0.057110339997863</v>
-      </c>
-      <c r="J8">
-        <v>0.057110339997863</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.005891</v>
-      </c>
-      <c r="O8">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P8">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q8">
-        <v>0.007405331950777777</v>
-      </c>
-      <c r="R8">
-        <v>0.06664798755699999</v>
-      </c>
-      <c r="S8">
-        <v>0.003561649918245741</v>
-      </c>
-      <c r="T8">
-        <v>0.00356164991824574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.771175666666667</v>
-      </c>
-      <c r="H9">
-        <v>11.313527</v>
-      </c>
-      <c r="I9">
-        <v>0.057110339997863</v>
-      </c>
-      <c r="J9">
-        <v>0.057110339997863</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N9">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P9">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q9">
-        <v>0.1113376762655556</v>
-      </c>
-      <c r="R9">
-        <v>1.00203908639</v>
-      </c>
-      <c r="S9">
-        <v>0.05354869007961727</v>
-      </c>
-      <c r="T9">
-        <v>0.05354869007961726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>19.402266</v>
-      </c>
-      <c r="H10">
-        <v>58.20679800000001</v>
-      </c>
-      <c r="I10">
-        <v>0.2938261449295991</v>
-      </c>
-      <c r="J10">
-        <v>0.2938261449295991</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.005891</v>
-      </c>
-      <c r="O10">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P10">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q10">
-        <v>0.038099583002</v>
-      </c>
-      <c r="R10">
-        <v>0.342896247018</v>
-      </c>
-      <c r="S10">
-        <v>0.01832428007093158</v>
-      </c>
-      <c r="T10">
-        <v>0.01832428007093158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>19.402266</v>
-      </c>
-      <c r="H11">
-        <v>58.20679800000001</v>
-      </c>
-      <c r="I11">
-        <v>0.2938261449295991</v>
-      </c>
-      <c r="J11">
-        <v>0.2938261449295991</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P11">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q11">
-        <v>0.5728195665400001</v>
-      </c>
-      <c r="R11">
-        <v>5.155376098860001</v>
-      </c>
-      <c r="S11">
-        <v>0.2755018648586675</v>
-      </c>
-      <c r="T11">
-        <v>0.2755018648586675</v>
+        <v>0.2504087951347477</v>
       </c>
     </row>
   </sheetData>
